--- a/stock_predictor_ai/data/cleaned/KHC.xlsx
+++ b/stock_predictor_ai/data/cleaned/KHC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2506"/>
+  <dimension ref="A1:F2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50569,6 +50569,26 @@
         <v>1505977</v>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2507" t="n">
+        <v>26.45499992370605</v>
+      </c>
+      <c r="C2507" t="n">
+        <v>26.55500030517578</v>
+      </c>
+      <c r="D2507" t="n">
+        <v>26.32999992370605</v>
+      </c>
+      <c r="E2507" t="n">
+        <v>26.45999908447266</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>1132206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KHC.xlsx
+++ b/stock_predictor_ai/data/cleaned/KHC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2507"/>
+  <dimension ref="A1:F2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50589,6 +50589,26 @@
         <v>1132206</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2508" t="n">
+        <v>27.1200008392334</v>
+      </c>
+      <c r="C2508" t="n">
+        <v>27.94000053405762</v>
+      </c>
+      <c r="D2508" t="n">
+        <v>27.07999992370605</v>
+      </c>
+      <c r="E2508" t="n">
+        <v>27.77000045776367</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>20352600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KHC.xlsx
+++ b/stock_predictor_ai/data/cleaned/KHC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2508"/>
+  <dimension ref="A1:F2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50609,6 +50609,26 @@
         <v>20352600</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2509" t="n">
+        <v>27.69000053405762</v>
+      </c>
+      <c r="C2509" t="n">
+        <v>28.02000045776367</v>
+      </c>
+      <c r="D2509" t="n">
+        <v>27.65010070800781</v>
+      </c>
+      <c r="E2509" t="n">
+        <v>27.97999954223633</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>1490928</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KHC.xlsx
+++ b/stock_predictor_ai/data/cleaned/KHC.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2509"/>
+  <dimension ref="A1:F2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50629,6 +50629,26 @@
         <v>1490928</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2510" t="n">
+        <v>26.01499938964844</v>
+      </c>
+      <c r="C2510" t="n">
+        <v>27.90999984741211</v>
+      </c>
+      <c r="D2510" t="n">
+        <v>25.93000030517578</v>
+      </c>
+      <c r="E2510" t="n">
+        <v>27.76000022888184</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>25516481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/KHC.xlsx
+++ b/stock_predictor_ai/data/cleaned/KHC.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2510"/>
+  <dimension ref="A1:F2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50549,106 +50551,6 @@
         <v>13992000</v>
       </c>
     </row>
-    <row r="2506">
-      <c r="A2506" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B2506" t="n">
-        <v>26.76000022888184</v>
-      </c>
-      <c r="C2506" t="n">
-        <v>27.14999961853027</v>
-      </c>
-      <c r="D2506" t="n">
-        <v>26.71500015258789</v>
-      </c>
-      <c r="E2506" t="n">
-        <v>27.09000015258789</v>
-      </c>
-      <c r="F2506" t="n">
-        <v>1505977</v>
-      </c>
-    </row>
-    <row r="2507">
-      <c r="A2507" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B2507" t="n">
-        <v>26.45499992370605</v>
-      </c>
-      <c r="C2507" t="n">
-        <v>26.55500030517578</v>
-      </c>
-      <c r="D2507" t="n">
-        <v>26.32999992370605</v>
-      </c>
-      <c r="E2507" t="n">
-        <v>26.45999908447266</v>
-      </c>
-      <c r="F2507" t="n">
-        <v>1132206</v>
-      </c>
-    </row>
-    <row r="2508">
-      <c r="A2508" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2508" t="n">
-        <v>27.1200008392334</v>
-      </c>
-      <c r="C2508" t="n">
-        <v>27.94000053405762</v>
-      </c>
-      <c r="D2508" t="n">
-        <v>27.07999992370605</v>
-      </c>
-      <c r="E2508" t="n">
-        <v>27.77000045776367</v>
-      </c>
-      <c r="F2508" t="n">
-        <v>20352600</v>
-      </c>
-    </row>
-    <row r="2509">
-      <c r="A2509" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B2509" t="n">
-        <v>27.69000053405762</v>
-      </c>
-      <c r="C2509" t="n">
-        <v>28.02000045776367</v>
-      </c>
-      <c r="D2509" t="n">
-        <v>27.65010070800781</v>
-      </c>
-      <c r="E2509" t="n">
-        <v>27.97999954223633</v>
-      </c>
-      <c r="F2509" t="n">
-        <v>1490928</v>
-      </c>
-    </row>
-    <row r="2510">
-      <c r="A2510" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B2510" t="n">
-        <v>26.01499938964844</v>
-      </c>
-      <c r="C2510" t="n">
-        <v>27.90999984741211</v>
-      </c>
-      <c r="D2510" t="n">
-        <v>25.93000030517578</v>
-      </c>
-      <c r="E2510" t="n">
-        <v>27.76000022888184</v>
-      </c>
-      <c r="F2510" t="n">
-        <v>25516481</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
